--- a/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874" uniqueCount="532">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Resultado Examen</t>
+    <t>Observation Resultado Examen</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -879,13 +879,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/CodigoExamen</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -943,12 +937,6 @@
   </si>
   <si>
     <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Representación textual de un concepto, en este caso por defecto es 'examenes'</t>
-  </si>
-  <si>
-    <t>examenes</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1084,7 +1072,7 @@
     <t>effectiveDateTime</t>
   </si>
   <si>
-    <t>Tiempo o momento en que el valor fue observado</t>
+    <t>Tiempo o momento en que se tomó examen</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -1280,6 +1268,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1636,6 +1627,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -2030,7 +2027,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.2265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -5249,13 +5246,11 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y27" s="2"/>
+      <c r="Z27" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5288,30 +5283,30 @@
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5426,10 +5421,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5546,10 +5541,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5668,10 +5663,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5786,10 +5781,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5906,10 +5901,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5935,7 +5930,7 @@
         <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>226</v>
@@ -6028,10 +6023,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6148,10 +6143,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6177,7 +6172,7 @@
         <v>113</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>242</v>
@@ -6268,10 +6263,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6388,10 +6383,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6510,10 +6505,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6521,7 +6516,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>93</v>
@@ -6539,7 +6534,7 @@
         <v>202</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>266</v>
@@ -6558,7 +6553,7 @@
         <v>82</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>82</v>
@@ -6632,10 +6627,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6658,19 +6653,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6719,7 +6714,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6734,19 +6729,19 @@
         <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -6754,10 +6749,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6780,16 +6775,16 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6839,7 +6834,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6860,13 +6855,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -6874,14 +6869,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6900,19 +6895,19 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6961,7 +6956,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6976,19 +6971,19 @@
         <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -6996,14 +6991,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7022,19 +7017,19 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O42" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7071,17 +7066,17 @@
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7096,19 +7091,19 @@
         <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7116,16 +7111,16 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7144,19 +7139,19 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7205,7 +7200,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7220,19 +7215,19 @@
         <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7240,10 +7235,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7266,16 +7261,16 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7325,7 +7320,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7346,13 +7341,13 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>82</v>
@@ -7360,10 +7355,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7386,17 +7381,17 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7445,7 +7440,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7460,19 +7455,19 @@
         <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>82</v>
@@ -7480,10 +7475,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7506,19 +7501,19 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7567,7 +7562,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7576,7 +7571,7 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>105</v>
@@ -7585,27 +7580,27 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7631,16 +7626,16 @@
         <v>192</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7665,13 +7660,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7689,7 +7684,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7698,7 +7693,7 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>105</v>
@@ -7713,7 +7708,7 @@
         <v>136</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7724,14 +7719,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7753,16 +7748,16 @@
         <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7787,13 +7782,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7811,7 +7806,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7829,27 +7824,27 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7872,19 +7867,19 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7933,7 +7928,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7954,10 +7949,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7968,10 +7963,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7997,13 +7992,13 @@
         <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8029,13 +8024,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>278</v>
+        <v>403</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8053,7 +8048,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8071,27 +8066,27 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8117,16 +8112,16 @@
         <v>192</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8151,13 +8146,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>278</v>
+        <v>403</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8175,7 +8170,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8196,10 +8191,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8210,10 +8205,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8236,16 +8231,16 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8295,7 +8290,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8313,27 +8308,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8356,16 +8351,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8415,7 +8410,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8433,27 +8428,27 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP53" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8476,19 +8471,19 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8537,7 +8532,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8549,7 +8544,7 @@
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8558,10 +8553,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8572,10 +8567,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8690,10 +8685,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8810,14 +8805,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8839,10 +8834,10 @@
         <v>139</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>142</v>
@@ -8897,7 +8892,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8932,10 +8927,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8958,13 +8953,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9015,7 +9010,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9024,7 +9019,7 @@
         <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>105</v>
@@ -9036,10 +9031,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9050,10 +9045,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9076,13 +9071,13 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9133,7 +9128,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9142,7 +9137,7 @@
         <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>105</v>
@@ -9154,10 +9149,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9168,10 +9163,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9197,16 +9192,16 @@
         <v>192</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9234,10 +9229,10 @@
         <v>117</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9255,7 +9250,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9273,13 +9268,13 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9290,10 +9285,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9319,16 +9314,16 @@
         <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9353,13 +9348,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>278</v>
+        <v>403</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9377,7 +9372,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9395,13 +9390,13 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9412,10 +9407,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9438,17 +9433,17 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9497,7 +9492,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9521,7 +9516,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9532,10 +9527,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9561,10 +9556,10 @@
         <v>202</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9615,7 +9610,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9636,10 +9631,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9650,10 +9645,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9676,16 +9671,16 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9735,7 +9730,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9756,10 +9751,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9770,10 +9765,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9796,16 +9791,16 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9855,7 +9850,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9876,10 +9871,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -9890,10 +9885,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9916,19 +9911,19 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -9977,7 +9972,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9998,10 +9993,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10012,10 +10007,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10130,10 +10125,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10250,14 +10245,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10279,10 +10274,10 @@
         <v>139</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>142</v>
@@ -10337,7 +10332,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10372,10 +10367,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10401,13 +10396,13 @@
         <v>192</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>277</v>
@@ -10435,13 +10430,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>278</v>
+        <v>403</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>279</v>
+        <v>517</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>280</v>
+        <v>518</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10459,7 +10454,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>93</v>
@@ -10477,16 +10472,16 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>82</v>
@@ -10494,10 +10489,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10520,19 +10515,19 @@
         <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O71" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10581,7 +10576,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10599,27 +10594,27 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10645,16 +10640,16 @@
         <v>192</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="N72" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="O72" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10679,13 +10674,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10703,7 +10698,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10712,7 +10707,7 @@
         <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -10727,7 +10722,7 @@
         <v>136</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10738,14 +10733,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10767,16 +10762,16 @@
         <v>192</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10801,13 +10796,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -10825,7 +10820,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10843,27 +10838,27 @@
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10889,16 +10884,16 @@
         <v>83</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="N74" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -10947,7 +10942,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10968,10 +10963,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>

--- a/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
